--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468143.628423203</v>
+        <v>1465891.548711995</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.792004777353017</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>103.645016151009</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>87.83762944231206</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>270.486856930786</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>48.49503194400693</v>
+        <v>76.25869174057063</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>138.1219706437577</v>
       </c>
       <c r="G8" t="n">
-        <v>48.4830405530757</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717259</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>239.8509288629743</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.38427178197995</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>36.22494343870233</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.069540131684477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788181661</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3080,10 +3080,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.41770597126936</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>20.89983420622125</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773885</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796247</v>
+        <v>1308.370295943751</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796247</v>
+        <v>939.4077790033389</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796247</v>
+        <v>939.4077790033389</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796247</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>510.7845510900171</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520491</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794327</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180642</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919562</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4483,49 +4483,49 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1748.739212621464</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.4166776763448</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X7" t="n">
-        <v>742.0651425065845</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.0651425065845</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.067756754391</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.10523981398</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D8" t="n">
-        <v>1251.839541207229</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="E8" t="n">
-        <v>866.051288608985</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="F8" t="n">
-        <v>455.0653838193775</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,13 +4802,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794325</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.667596818513</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5732,49 +5732,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>130.4075150062571</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746441</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580263</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602306</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359458</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.340348461441</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179108</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6728,7 +6728,7 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327675</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048606</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925248</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101317</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101317</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>129.5921236250117</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7026,10 +7026,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038363</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7828,19 +7828,19 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
         <v>1202.091371290588</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.255978819893812e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922675</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>46.67206947361669</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660561915</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>45.99097492814173</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>45.0408928798632</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.5151132204103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038386</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8770068749545</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>265.2846401830229</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815053</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214784</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
@@ -26335,25 +26335,25 @@
         <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815691</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,7 +26433,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014491.591111965</v>
+        <v>-1014491.591111967</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156263</v>
+        <v>314253.1546156274</v>
       </c>
       <c r="D6" t="n">
         <v>314253.1546156266</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818541</v>
+        <v>66119.91903274975</v>
       </c>
       <c r="F6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401055</v>
       </c>
       <c r="G6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655407</v>
+        <v>391532.380840105</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="J6" t="n">
-        <v>174035.9163682635</v>
+        <v>174001.1784428274</v>
       </c>
       <c r="K6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="L6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="M6" t="n">
-        <v>306512.0908300291</v>
+        <v>306477.3529045933</v>
       </c>
       <c r="N6" t="n">
-        <v>391567.1187655409</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="O6" t="n">
-        <v>391567.1187655407</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401049</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,34 +26796,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,23 +27009,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>377.1383652949087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>307.2767095024445</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27591,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>198.3742087633008</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>111.4435131414758</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>118.7517891546209</v>
+        <v>90.98812935805721</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>268.7540750979538</v>
       </c>
       <c r="G8" t="n">
-        <v>362.4386851003778</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.042193499807635e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>307.465452939363</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990649</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,34 +33968,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770466</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066269</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096369</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
